--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1771073.245529152</v>
+        <v>1768529.458783694</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.3828147651796</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>116.6367944712304</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651796</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.3828147651796</v>
+        <v>12.83532033605546</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.3828147651777</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739396</v>
+        <v>115.3507887739399</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179691</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.3828147651777</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>207.5144425406704</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.4852405450068</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642714</v>
+        <v>18.19058462642738</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>47.1208920361753</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>30.05513842073326</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>40.66590743329539</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718866</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7281204196194</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.3828147651777</v>
       </c>
       <c r="X4" t="n">
-        <v>16.00208922033625</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>19.72100737961695</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>212.568965117905</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>68.53264881198402</v>
       </c>
       <c r="C6" t="n">
-        <v>109.3170492634408</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>63.27499344337906</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>68.05955538367301</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>281.1467950393361</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>192.0872650464905</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>111.5109739231589</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>16.71410042222013</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756253</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389036</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0347892581646</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.63824106824919</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>163.3542162903876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>57.24347904696321</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>23.62554568141102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>23.10998325717215</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411514</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,16 +3481,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238291</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205763878</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3715,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>139.1630968205466</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,13 +3955,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.8172046759409</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>81.11398998229735</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>19.17715139986223</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>32.84316668127781</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.4880118231632</v>
+        <v>423.5402914608955</v>
       </c>
       <c r="C2" t="n">
-        <v>669.6730679128294</v>
+        <v>423.5402914608955</v>
       </c>
       <c r="D2" t="n">
-        <v>669.6730679128294</v>
+        <v>423.5402914608955</v>
       </c>
       <c r="E2" t="n">
-        <v>669.6730679128294</v>
+        <v>423.5402914608955</v>
       </c>
       <c r="F2" t="n">
-        <v>403.6298206752742</v>
+        <v>416.594790711692</v>
       </c>
       <c r="G2" t="n">
-        <v>137.586573437719</v>
+        <v>403.6298206752724</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>137.5865734377192</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121422</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467311</v>
+        <v>49.15993901467255</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935556</v>
+        <v>141.9970572935545</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959963</v>
+        <v>294.0714735959942</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795964</v>
+        <v>494.9530007795931</v>
       </c>
       <c r="N2" t="n">
-        <v>703.698809467031</v>
+        <v>703.6988094670264</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288926</v>
+        <v>887.4762960288867</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108065</v>
+        <v>1009.825128108058</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060711</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060711</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060718</v>
+        <v>899.194086719328</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060718</v>
+        <v>899.194086719328</v>
       </c>
       <c r="U2" t="n">
-        <v>1053.531259060718</v>
+        <v>899.194086719328</v>
       </c>
       <c r="V2" t="n">
-        <v>1053.531259060718</v>
+        <v>633.1508394817747</v>
       </c>
       <c r="W2" t="n">
-        <v>1053.531259060718</v>
+        <v>423.5402914608955</v>
       </c>
       <c r="X2" t="n">
-        <v>1053.531259060718</v>
+        <v>423.5402914608955</v>
       </c>
       <c r="Y2" t="n">
-        <v>1053.531259060718</v>
+        <v>423.5402914608955</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>582.3455117294584</v>
+        <v>354.7611094677967</v>
       </c>
       <c r="C3" t="n">
-        <v>407.8924824483314</v>
+        <v>180.3080801866697</v>
       </c>
       <c r="D3" t="n">
-        <v>258.9580727870801</v>
+        <v>180.3080801866697</v>
       </c>
       <c r="E3" t="n">
-        <v>258.9580727870801</v>
+        <v>21.07062518121422</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9580727870801</v>
+        <v>21.07062518121422</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5607671458677</v>
+        <v>21.07062518121422</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121422</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121422</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121422</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371018</v>
+        <v>95.6566500137094</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420692</v>
+        <v>247.2442614226848</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286551</v>
+        <v>437.6911839092697</v>
       </c>
       <c r="N3" t="n">
-        <v>738.542143376704</v>
+        <v>647.5873146573176</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748497</v>
+        <v>908.3363012748435</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062218</v>
+        <v>1025.278016062211</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060711</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155236</v>
+        <v>1035.156931155229</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155236</v>
+        <v>987.5600705126274</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.156931155236</v>
+        <v>790.7484963727186</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.156931155236</v>
+        <v>562.6126096733295</v>
       </c>
       <c r="V3" t="n">
-        <v>1004.798205477728</v>
+        <v>562.6126096733295</v>
       </c>
       <c r="W3" t="n">
-        <v>750.5608487495265</v>
+        <v>562.6126096733295</v>
       </c>
       <c r="X3" t="n">
-        <v>750.5608487495265</v>
+        <v>354.7611094677967</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.5608487495265</v>
+        <v>354.7611094677967</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>634.9264886017604</v>
+        <v>231.083482284167</v>
       </c>
       <c r="C4" t="n">
-        <v>465.9903056738535</v>
+        <v>62.14729935626008</v>
       </c>
       <c r="D4" t="n">
-        <v>315.8736662615178</v>
+        <v>62.14729935626008</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9605726791247</v>
+        <v>62.14729935626008</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121437</v>
+        <v>62.14729935626008</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121422</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121422</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121422</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121422</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481196</v>
+        <v>126.3277805481191</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504846</v>
+        <v>316.5471352504837</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030304</v>
+        <v>527.4958971570801</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670077</v>
+        <v>738.8633854210569</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836271</v>
+        <v>917.2498138836205</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097369</v>
+        <v>1047.079201097362</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060711</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060718</v>
+        <v>924.7153898971891</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060718</v>
+        <v>717.9193086652504</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060718</v>
+        <v>717.9193086652504</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.531259060718</v>
+        <v>717.9193086652504</v>
       </c>
       <c r="V4" t="n">
-        <v>1053.531259060718</v>
+        <v>717.9193086652504</v>
       </c>
       <c r="W4" t="n">
-        <v>1053.531259060718</v>
+        <v>451.8760614276971</v>
       </c>
       <c r="X4" t="n">
-        <v>1037.36753257553</v>
+        <v>451.8760614276971</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.5749534320001</v>
+        <v>231.083482284167</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571245</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="C5" t="n">
-        <v>573.7617370571245</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515903</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388467</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="W5" t="n">
-        <v>573.7617370571245</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="X5" t="n">
-        <v>573.7617370571245</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="Y5" t="n">
-        <v>573.7617370571245</v>
+        <v>53.98113264792551</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.518372282384</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V6" t="n">
-        <v>801.3675279810723</v>
+        <v>652.7312295849117</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528707</v>
+        <v>398.4938728567101</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473379</v>
+        <v>398.4938728567101</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.518372282384</v>
+        <v>398.4938728567101</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4750,25 +4750,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U7" t="n">
-        <v>990.9413852147328</v>
+        <v>356.2217926073722</v>
       </c>
       <c r="V7" t="n">
-        <v>736.256897008846</v>
+        <v>356.2217926073722</v>
       </c>
       <c r="W7" t="n">
-        <v>469.8792404416679</v>
+        <v>89.84413604019426</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>89.84413604019426</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1081.071510755571</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C8" t="n">
-        <v>712.1089938151592</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D8" t="n">
-        <v>353.8432952084087</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795504</v>
+        <v>1990.031519739804</v>
       </c>
       <c r="Y8" t="n">
-        <v>1467.671350819693</v>
+        <v>1599.892187763993</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4884,19 +4884,19 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1946.556931114678</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>368.9218676324039</v>
       </c>
       <c r="C10" t="n">
-        <v>461.9138669598622</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7972275475264</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8841339651333</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1619.563190355083</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1133.816105018782</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>879.1316168128947</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>589.714446775934</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>589.714446775934</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>368.9218676324039</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524073</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868271</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625424</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2425.106274420413</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2242.251440075317</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2022.649975098258</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1733.574748442456</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1478.890260236569</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1189.473090199608</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>961.4835393015907</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>740.6909601580605</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589092</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>979.2799367326791</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>758.4873575891489</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2389.141387573227</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273906</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>264.0500279773693</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>117.1600804794589</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,19 +6932,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7403,37 +7403,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>726.955532171245</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>558.0193492433381</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>1129.396576145015</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.6039970014847</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>783.5579673960132</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C46" t="n">
-        <v>614.6217844681063</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D46" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1958.090220510648</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1703.405732304761</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1413.9885622678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>965.2064322262529</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877316</v>
+        <v>60.59164343877362</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079636</v>
+        <v>2.109135423080005</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96.89877181692177</v>
+        <v>5.025207453908905</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>91.87356436301127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8143,13 +8143,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>177.6719212588889</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>162.2039267153215</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515147</v>
+        <v>255.8421700460949</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.003342051663</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788527</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.737005641874</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7828069546814</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>124.9899273368013</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="29">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>142.4141550350967</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462217</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.754401294456</v>
       </c>
     </row>
     <row r="38">
@@ -25397,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>147.0213775686976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.32043864788713</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>144.5956654067398</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>267.0073229893819</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>899605.0159751286</v>
+        <v>899605.0159751285</v>
       </c>
     </row>
     <row r="3">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="M2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="N2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="O2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909285</v>
+        <v>679702.4124909261</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680950839</v>
+        <v>366.4703680972244</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059433</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642064</v>
+        <v>68912.5331864201</v>
       </c>
       <c r="K3" t="n">
-        <v>85.205597743127</v>
+        <v>85.20559774331259</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756965</v>
+        <v>95382.64613756983</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674034</v>
+        <v>253116.547767404</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557683</v>
+        <v>63021.46164557667</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-441637.2272455175</v>
+        <v>-441637.2272455154</v>
       </c>
       <c r="C6" t="n">
-        <v>237772.1561786947</v>
+        <v>237772.1561786925</v>
       </c>
       <c r="D6" t="n">
-        <v>-72609.89885509585</v>
+        <v>-72609.89885509608</v>
       </c>
       <c r="E6" t="n">
-        <v>-76170.93683951719</v>
+        <v>-76205.67476495302</v>
       </c>
       <c r="F6" t="n">
-        <v>431314.5047850285</v>
+        <v>431279.766859593</v>
       </c>
       <c r="G6" t="n">
-        <v>431314.5047850286</v>
+        <v>431279.7668595931</v>
       </c>
       <c r="H6" t="n">
-        <v>431314.5047850287</v>
+        <v>431279.766859593</v>
       </c>
       <c r="I6" t="n">
-        <v>431314.5047850288</v>
+        <v>431279.766859593</v>
       </c>
       <c r="J6" t="n">
-        <v>362401.971598608</v>
+        <v>362367.2336731728</v>
       </c>
       <c r="K6" t="n">
-        <v>431229.299187286</v>
+        <v>431194.5612618497</v>
       </c>
       <c r="L6" t="n">
-        <v>335931.8586474591</v>
+        <v>335897.1207220229</v>
       </c>
       <c r="M6" t="n">
-        <v>298707.211056102</v>
+        <v>298672.4731306659</v>
       </c>
       <c r="N6" t="n">
-        <v>431314.5047850288</v>
+        <v>431279.766859593</v>
       </c>
       <c r="O6" t="n">
-        <v>431314.5047850289</v>
+        <v>431279.7668595933</v>
       </c>
       <c r="P6" t="n">
-        <v>431314.5047850287</v>
+        <v>431279.7668595929</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960506</v>
+        <v>613.7700232960487</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651796</v>
+        <v>263.3828147651777</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960506</v>
+        <v>613.7700232960487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.284990473427797</v>
+        <v>0.2849904734295023</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480607</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651796</v>
+        <v>263.3828147651777</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363265945</v>
+        <v>0.3310652363284134</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985325</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651795</v>
+        <v>263.3828147651775</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363268218</v>
+        <v>0.3310652363281861</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985324</v>
+        <v>376.8709520985331</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651796</v>
+        <v>263.3828147651777</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363265945</v>
+        <v>0.3310652363284134</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985325</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.351026898301</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>248.6360972997771</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4932309765318</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.4525055708758</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>50.82255116534054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>212.2947308627105</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.36944370495718</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>141.7265261767426</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.48524054500685</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807547</v>
+        <v>43.94290942807561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>100.0404295520138</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>202.745448728692</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>126.2182735224984</v>
       </c>
       <c r="H4" t="n">
         <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180233</v>
+        <v>122.1660284180234</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825663</v>
+        <v>15.10853304825687</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718865</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2165417078037</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>23.14018357141327</v>
       </c>
       <c r="X4" t="n">
-        <v>209.7075661687009</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>387.1550383620945</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,22 +27667,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862871</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>136.672003599508</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>98.00053483788332</v>
       </c>
       <c r="C6" t="n">
-        <v>63.39144972487493</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>222.9836370592984</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>150.5250979684218</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>100.7835750329257</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>177.6438356319785</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>33.91007409977237</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>84.8434719973535</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29196,7 +29196,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -29685,7 +29685,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30201,7 +30201,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079598</v>
+        <v>2.467417179079591</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524894</v>
+        <v>25.26943618524887</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646631</v>
+        <v>95.12510079646603</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029073</v>
+        <v>209.4189488029066</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933467</v>
+        <v>313.8647179933458</v>
       </c>
       <c r="L2" t="n">
-        <v>389.376936487604</v>
+        <v>389.3769364876029</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460608</v>
+        <v>433.2568667460596</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061208</v>
+        <v>440.2674158061195</v>
       </c>
       <c r="O2" t="n">
-        <v>415.732036231648</v>
+        <v>415.7320362316468</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231204</v>
+        <v>354.8176746231193</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973322</v>
+        <v>266.4532968973314</v>
       </c>
       <c r="R2" t="n">
-        <v>154.993894375359</v>
+        <v>154.9938943753585</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827641</v>
+        <v>56.22626896827624</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142095</v>
+        <v>10.80111870142091</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263678</v>
+        <v>0.1973933743263672</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410373</v>
+        <v>1.320184578410369</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148966</v>
+        <v>12.75020369148962</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4537234233396</v>
+        <v>45.45372342333947</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435871</v>
+        <v>124.7284912435867</v>
       </c>
       <c r="K3" t="n">
-        <v>213.180857997082</v>
+        <v>213.1808579970814</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289716</v>
+        <v>286.6479717289707</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963475</v>
+        <v>334.5046626963465</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682312</v>
+        <v>343.3580057682302</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466119</v>
+        <v>314.1054948466109</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439948</v>
+        <v>252.0973516439941</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774364</v>
+        <v>168.5204033774359</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621599</v>
+        <v>81.96724952621575</v>
       </c>
       <c r="S3" t="n">
-        <v>24.5218495156488</v>
+        <v>24.52184951564873</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311984</v>
+        <v>5.321270296311968</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962984</v>
+        <v>0.08685424857962958</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665009</v>
+        <v>1.106798402665006</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980057998</v>
+        <v>9.840443980057968</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923501</v>
+        <v>33.28444650923491</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841614</v>
+        <v>78.2506470684159</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823528</v>
+        <v>128.5898507823525</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653051</v>
+        <v>164.5507370653046</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195704</v>
+        <v>173.4956805195699</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187283</v>
+        <v>169.3703410187278</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148688</v>
+        <v>156.4409233148683</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005025</v>
+        <v>133.8622359005021</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770363</v>
+        <v>92.67927351770336</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528303</v>
+        <v>49.76568090528288</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735292</v>
+        <v>19.28847761735287</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477765</v>
+        <v>4.729047720477751</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354602</v>
+        <v>0.06037082196354584</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>202.2352659288684</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,28 +32549,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32789,10 +32789,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>209.2370040367373</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622658</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622098</v>
+        <v>28.37304427622036</v>
       </c>
       <c r="K2" t="n">
-        <v>93.7748669483662</v>
+        <v>93.77486694836523</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176168</v>
+        <v>153.6105215176157</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187881</v>
+        <v>202.9106335187869</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095299</v>
+        <v>210.8543522095286</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099613</v>
+        <v>185.63382480996</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678508</v>
+        <v>123.5846788678498</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288268</v>
+        <v>44.14760702288189</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272304</v>
+        <v>75.33941902272241</v>
       </c>
       <c r="L3" t="n">
-        <v>244.9923637660192</v>
+        <v>153.1187994030055</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743292</v>
+        <v>192.3706287743282</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848979</v>
+        <v>212.0162936848969</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021674</v>
+        <v>263.3828147651777</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296646</v>
+        <v>118.1229442296639</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141488</v>
+        <v>28.53862929141437</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.32035895647</v>
+        <v>106.3203589564696</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256212</v>
+        <v>192.1407623256208</v>
       </c>
       <c r="M4" t="n">
-        <v>212.2418178308543</v>
+        <v>213.0795574814105</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979569</v>
+        <v>213.5025133979564</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289085</v>
+        <v>180.1883115783471</v>
       </c>
       <c r="P4" t="n">
-        <v>131.140795165396</v>
+        <v>131.1407951653956</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.51723026600925</v>
+        <v>6.51723026600898</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,7 +35267,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750469</v>
+        <v>505.5216991696271</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.09163190712582</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>285.360777932</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191301</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402476</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
